--- a/biology/Biochimie/Panose/Panose.xlsx
+++ b/biology/Biochimie/Panose/Panose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le panose est un triholoside naturellement présent dans la nature.
 Le panose est un gluco-oligoside composé de trois unités de glucose : glucose α(1→6)-glucose α(1→4)-glucose.
-Le panose est légèrement sucré et non cariogène[3].
-Le panose peut être obtenu par action d'une enzyme, la néopullulanase, sur le pullulane (un glucane)[3].
-Le panose s'hydrolyse en glucose plus vite que le lactose et a une valeur calorifique de 4kcal/g[4].
-L'isopanose est l'isomère du panose, l'ordre des liaisons osidiques étant inversé : glucose α(1→4)-glucose α(1→6)-glucose[5].
+Le panose est légèrement sucré et non cariogène.
+Le panose peut être obtenu par action d'une enzyme, la néopullulanase, sur le pullulane (un glucane).
+Le panose s'hydrolyse en glucose plus vite que le lactose et a une valeur calorifique de 4kcal/g.
+L'isopanose est l'isomère du panose, l'ordre des liaisons osidiques étant inversé : glucose α(1→4)-glucose α(1→6)-glucose.
 </t>
         </is>
       </c>
